--- a/wide/synthetic_dataset_16.xlsx
+++ b/wide/synthetic_dataset_16.xlsx
@@ -11,14 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>soon</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,305 +372,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:35">
+      <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <v>45923</v>
+        <v>45877</v>
       </c>
       <c r="C1" s="2">
-        <v>45930</v>
+        <v>45884</v>
       </c>
       <c r="D1" s="2">
-        <v>45937</v>
+        <v>45891</v>
       </c>
       <c r="E1" s="2">
-        <v>45944</v>
+        <v>45898</v>
       </c>
       <c r="F1" s="2">
-        <v>45951</v>
+        <v>45905</v>
       </c>
       <c r="G1" s="2">
-        <v>45958</v>
+        <v>45912</v>
       </c>
       <c r="H1" s="2">
-        <v>45965</v>
-      </c>
-      <c r="I1" s="2">
-        <v>45972</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>45986</v>
-      </c>
+        <v>45919</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2">
+        <v>45933</v>
+      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="2">
-        <v>45993</v>
+        <v>45947</v>
       </c>
       <c r="M1" s="2">
-        <v>46000</v>
+        <v>45954</v>
       </c>
       <c r="N1" s="2">
-        <v>46007</v>
+        <v>45961</v>
       </c>
       <c r="O1" s="2">
-        <v>46014</v>
+        <v>45968</v>
       </c>
       <c r="P1" s="2">
-        <v>46021</v>
+        <v>45975</v>
       </c>
       <c r="Q1" s="2">
-        <v>46028</v>
-      </c>
-      <c r="R1" s="2">
-        <v>46035</v>
-      </c>
-      <c r="S1" s="2">
-        <v>46042</v>
-      </c>
+        <v>45982</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="2">
+        <v>46003</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2">
+        <v>46017</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="2">
+        <v>46031</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>46038</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="2">
+        <v>46066</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>46073</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="2">
+        <v>46087</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="2">
+        <v>46101</v>
+      </c>
+      <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:35">
       <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>174</v>
+      </c>
+      <c r="E2">
+        <v>144</v>
+      </c>
+      <c r="F2">
+        <v>91</v>
+      </c>
+      <c r="I2">
+        <v>89</v>
+      </c>
+      <c r="J2">
+        <v>62</v>
+      </c>
+      <c r="M2">
+        <v>123</v>
+      </c>
+      <c r="N2">
         <v>61</v>
       </c>
-      <c r="B2">
-        <v>183</v>
-      </c>
-      <c r="C2">
-        <v>171</v>
-      </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>114</v>
-      </c>
-      <c r="F2">
-        <v>195</v>
-      </c>
-      <c r="G2">
-        <v>116</v>
-      </c>
-      <c r="H2">
-        <v>97</v>
-      </c>
-      <c r="I2">
-        <v>116</v>
-      </c>
-      <c r="J2">
+      <c r="O2">
+        <v>122</v>
+      </c>
+      <c r="P2">
+        <v>176</v>
+      </c>
+      <c r="Q2">
+        <v>186</v>
+      </c>
+      <c r="R2">
+        <v>84</v>
+      </c>
+      <c r="S2">
+        <v>74</v>
+      </c>
+      <c r="T2">
+        <v>118</v>
+      </c>
+      <c r="U2">
+        <v>75</v>
+      </c>
+      <c r="V2">
+        <v>72</v>
+      </c>
+      <c r="X2">
+        <v>68</v>
+      </c>
+      <c r="Z2">
+        <v>176</v>
+      </c>
+      <c r="AB2">
+        <v>172</v>
+      </c>
+      <c r="AD2">
+        <v>172</v>
+      </c>
+      <c r="AE2">
+        <v>160</v>
+      </c>
+      <c r="AF2">
         <v>66</v>
       </c>
-      <c r="K2">
-        <v>157</v>
-      </c>
-      <c r="L2">
-        <v>114</v>
-      </c>
-      <c r="M2">
-        <v>72</v>
-      </c>
-      <c r="N2">
-        <v>182</v>
-      </c>
-      <c r="O2">
-        <v>182</v>
-      </c>
-      <c r="P2">
-        <v>118</v>
-      </c>
-      <c r="Q2">
-        <v>86</v>
-      </c>
-      <c r="R2">
+      <c r="AG2">
+        <v>186</v>
+      </c>
+      <c r="AH2">
         <v>52</v>
       </c>
-      <c r="S2">
-        <v>176</v>
+      <c r="AI2">
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:35">
       <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
       </c>
       <c r="O3">
         <v>6</v>
       </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>9</v>
       </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>9</v>
+      </c>
+      <c r="AF3">
+        <v>9</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:35">
       <c r="A4">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>142</v>
-      </c>
-      <c r="C4">
         <v>106</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>75</v>
-      </c>
-      <c r="F4">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="G4">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4">
-        <v>142</v>
-      </c>
-      <c r="J4">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="K4">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="M4">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N4">
+        <v>186</v>
+      </c>
+      <c r="Q4">
+        <v>162</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+      <c r="S4">
+        <v>134</v>
+      </c>
+      <c r="T4">
+        <v>115</v>
+      </c>
+      <c r="U4">
+        <v>183</v>
+      </c>
+      <c r="V4">
+        <v>179</v>
+      </c>
+      <c r="W4">
         <v>77</v>
       </c>
-      <c r="O4">
-        <v>97</v>
-      </c>
-      <c r="P4">
-        <v>120</v>
-      </c>
-      <c r="Q4">
-        <v>124</v>
-      </c>
-      <c r="R4">
-        <v>90</v>
-      </c>
-      <c r="S4">
-        <v>136</v>
+      <c r="Y4">
+        <v>114</v>
+      </c>
+      <c r="Z4">
+        <v>81</v>
+      </c>
+      <c r="AB4">
+        <v>185</v>
+      </c>
+      <c r="AC4">
+        <v>117</v>
+      </c>
+      <c r="AD4">
+        <v>154</v>
+      </c>
+      <c r="AF4">
+        <v>60</v>
+      </c>
+      <c r="AG4">
+        <v>179</v>
+      </c>
+      <c r="AH4">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:35">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
       </c>
       <c r="R5">
         <v>2</v>
       </c>
       <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
         <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
